--- a/Clases/Clase_3/Dolar.xlsx
+++ b/Clases/Clase_3/Dolar.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program BI\Python ver 2.0\Clase 3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F0DFF9-0679-45E8-84FE-1F8CFE2BD059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8040" windowWidth="7350" xWindow="11430" yWindow="1425"/>
   </bookViews>
   <sheets>
-    <sheet name="valor_dolar" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="valor_dolar" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>Fecha</t>
   </si>
@@ -31,34 +25,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt formatCode="yyyy\-mm\-dd" numFmtId="164"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,26 +71,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -359,22 +349,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="11.42578125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="15.7109375"/>
+    <col customWidth="1" max="11" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="12" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -382,8 +376,24 @@
         <v>1</v>
       </c>
     </row>
+    <row customHeight="1" ht="15" r="2" spans="1:2">
+      <c r="A2" s="4" t="n">
+        <v>43789</v>
+      </c>
+      <c r="B2" t="n">
+        <v>797.17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" spans="1:2">
+      <c r="A3" s="4" t="n">
+        <v>43790</v>
+      </c>
+      <c r="B3" t="n">
+        <v>797.17</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>